--- a/src/assets/銀行匯出.xlsx
+++ b/src/assets/銀行匯出.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>入帳金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲值入帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +83,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -110,6 +126,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -406,10 +425,11 @@
     <col min="5" max="5" width="24" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +451,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
